--- a/schedule_data_2019_4.xlsx
+++ b/schedule_data_2019_4.xlsx
@@ -373,63 +373,63 @@
     <t>O</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
   <si>
     <t>P4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -520,58 +520,58 @@
     <t>晚班次數</t>
   </si>
   <si>
+    <t>['11.5', '12.0']</t>
+  </si>
+  <si>
+    <t>['12.5']</t>
+  </si>
+  <si>
+    <t>['12.0']</t>
+  </si>
+  <si>
+    <t>['11.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5']</t>
+  </si>
+  <si>
+    <t>['13.0']</t>
+  </si>
+  <si>
+    <t>['12.0', '12.5']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['11.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.5']</t>
+  </si>
+  <si>
     <t>['13.5']</t>
   </si>
   <si>
-    <t>['13.0']</t>
-  </si>
-  <si>
-    <t>['12.0']</t>
+    <t>['11.5', '12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['12.0', '12.5', '13.0']</t>
   </si>
   <si>
     <t>['12.0', '13.0']</t>
   </si>
   <si>
-    <t>['11.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0']</t>
-  </si>
-  <si>
-    <t>['12.0', '12.5']</t>
-  </si>
-  <si>
-    <t>['12.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11.5', '13.5']</t>
+    <t>['12.5', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '12.5', '13.5']</t>
   </si>
   <si>
     <t>['12.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '12.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['12.0', '12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '13.0', '13.5']</t>
   </si>
 </sst>
 </file>
@@ -1044,91 +1044,91 @@
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" t="s">
         <v>117</v>
-      </c>
-      <c r="R2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T2" t="s">
-        <v>131</v>
       </c>
       <c r="U2" t="s">
         <v>117</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AA2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AB2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE2" t="s">
         <v>117</v>
       </c>
       <c r="AF2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1145,88 +1145,88 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" t="s">
         <v>134</v>
       </c>
-      <c r="G3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="T3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" t="s">
         <v>122</v>
-      </c>
-      <c r="K3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" t="s">
-        <v>134</v>
-      </c>
-      <c r="W3" t="s">
-        <v>134</v>
-      </c>
-      <c r="X3" t="s">
-        <v>121</v>
       </c>
       <c r="Y3" t="s">
         <v>122</v>
       </c>
       <c r="Z3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AA3" t="s">
         <v>122</v>
       </c>
       <c r="AB3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AF3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1237,94 +1237,94 @@
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="S4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="T4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" t="s">
         <v>132</v>
       </c>
-      <c r="U4" t="s">
-        <v>118</v>
-      </c>
       <c r="V4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AB4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AF4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1335,94 +1335,94 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
         <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="R5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="T5" t="s">
         <v>129</v>
       </c>
       <c r="U5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="V5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Y5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Z5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AB5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1433,94 +1433,94 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
         <v>116</v>
       </c>
       <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" t="s">
         <v>127</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" t="s">
         <v>127</v>
       </c>
-      <c r="N6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="U6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" t="s">
+        <v>135</v>
+      </c>
+      <c r="X6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y6" t="s">
         <v>134</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Z6" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" t="s">
-        <v>126</v>
-      </c>
-      <c r="T6" t="s">
-        <v>122</v>
-      </c>
-      <c r="U6" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" t="s">
-        <v>134</v>
-      </c>
-      <c r="W6" t="s">
-        <v>134</v>
-      </c>
-      <c r="X6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>121</v>
-      </c>
       <c r="AA6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AB6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AC6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1531,46 +1531,46 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" t="s">
-        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7" t="s">
         <v>117</v>
@@ -1579,46 +1579,46 @@
         <v>117</v>
       </c>
       <c r="S7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X7" t="s">
         <v>117</v>
       </c>
       <c r="Y7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Z7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" t="s">
         <v>125</v>
       </c>
-      <c r="AA7" t="s">
-        <v>132</v>
-      </c>
       <c r="AB7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1629,94 +1629,94 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s">
         <v>116</v>
       </c>
       <c r="N8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" t="s">
         <v>134</v>
       </c>
-      <c r="P8" t="s">
+      <c r="T8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V8" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" t="s">
+        <v>135</v>
+      </c>
+      <c r="X8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" t="s">
         <v>134</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>132</v>
-      </c>
-      <c r="R8" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" t="s">
-        <v>125</v>
-      </c>
-      <c r="U8" t="s">
-        <v>133</v>
-      </c>
-      <c r="V8" t="s">
-        <v>134</v>
-      </c>
-      <c r="W8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>125</v>
       </c>
       <c r="Z8" t="s">
         <v>125</v>
       </c>
       <c r="AA8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="AB8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AC8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1727,94 +1727,94 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N9" t="s">
         <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T9" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9" t="s">
         <v>121</v>
       </c>
-      <c r="U9" t="s">
-        <v>121</v>
-      </c>
-      <c r="V9" t="s">
-        <v>134</v>
-      </c>
-      <c r="W9" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" t="s">
-        <v>118</v>
-      </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AA9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB9" t="s">
         <v>132</v>
       </c>
       <c r="AC9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1825,94 +1825,94 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10" t="s">
         <v>116</v>
       </c>
       <c r="R10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="T10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="V10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AA10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AB10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AC10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AF10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1923,94 +1923,94 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
         <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
         <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="T11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="V11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Z11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE11" t="s">
         <v>122</v>
       </c>
-      <c r="AB11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>121</v>
-      </c>
       <c r="AF11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -2021,94 +2021,94 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" t="s">
         <v>122</v>
-      </c>
-      <c r="M12" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" t="s">
-        <v>134</v>
-      </c>
-      <c r="P12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" t="s">
-        <v>118</v>
       </c>
       <c r="S12" t="s">
         <v>116</v>
       </c>
       <c r="T12" t="s">
+        <v>119</v>
+      </c>
+      <c r="U12" t="s">
         <v>122</v>
       </c>
-      <c r="U12" t="s">
-        <v>118</v>
-      </c>
       <c r="V12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AA12" t="s">
         <v>125</v>
       </c>
       <c r="AB12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE12" t="s">
         <v>125</v>
       </c>
-      <c r="AC12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>121</v>
-      </c>
       <c r="AF12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -2119,94 +2119,94 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="R13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="T13" t="s">
         <v>116</v>
       </c>
       <c r="U13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Z13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AB13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2217,94 +2217,94 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="K14" t="s">
         <v>125</v>
       </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" t="s">
-        <v>122</v>
-      </c>
       <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" t="s">
         <v>125</v>
       </c>
-      <c r="M14" t="s">
-        <v>125</v>
-      </c>
-      <c r="N14" t="s">
-        <v>121</v>
-      </c>
-      <c r="O14" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>121</v>
-      </c>
-      <c r="R14" t="s">
-        <v>117</v>
-      </c>
       <c r="S14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="U14" t="s">
         <v>116</v>
       </c>
       <c r="V14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Z14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AA14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2315,94 +2315,94 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
         <v>122</v>
       </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" t="s">
         <v>127</v>
       </c>
-      <c r="L15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="R15" t="s">
         <v>127</v>
       </c>
-      <c r="N15" t="s">
+      <c r="S15" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" t="s">
         <v>127</v>
       </c>
-      <c r="O15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>135</v>
-      </c>
-      <c r="R15" t="s">
-        <v>135</v>
-      </c>
-      <c r="S15" t="s">
-        <v>126</v>
-      </c>
-      <c r="T15" t="s">
-        <v>135</v>
-      </c>
-      <c r="U15" t="s">
-        <v>122</v>
-      </c>
       <c r="V15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X15" t="s">
         <v>116</v>
       </c>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Z15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB15" t="s">
         <v>125</v>
       </c>
-      <c r="AA15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>127</v>
-      </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2413,94 +2413,94 @@
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="U16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
       </c>
       <c r="Z16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AB16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AC16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2511,7 +2511,7 @@
         <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
         <v>128</v>
@@ -2520,85 +2520,85 @@
         <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="S17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="T17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="U17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="V17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z17" t="s">
         <v>116</v>
       </c>
       <c r="AA17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AC17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2609,73 +2609,73 @@
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" t="s">
+        <v>124</v>
+      </c>
+      <c r="U18" t="s">
+        <v>124</v>
+      </c>
+      <c r="V18" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" t="s">
+        <v>135</v>
+      </c>
+      <c r="X18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y18" t="s">
         <v>122</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" t="s">
-        <v>125</v>
-      </c>
-      <c r="S18" t="s">
-        <v>132</v>
-      </c>
-      <c r="T18" t="s">
-        <v>125</v>
-      </c>
-      <c r="U18" t="s">
-        <v>133</v>
-      </c>
-      <c r="V18" t="s">
-        <v>134</v>
-      </c>
-      <c r="W18" t="s">
-        <v>134</v>
-      </c>
-      <c r="X18" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>132</v>
       </c>
       <c r="Z18" t="s">
         <v>125</v>
@@ -2684,19 +2684,19 @@
         <v>116</v>
       </c>
       <c r="AB18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AF18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2707,94 +2707,94 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
         <v>125</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" t="s">
         <v>125</v>
       </c>
-      <c r="E19" t="s">
+      <c r="M19" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" t="s">
-        <v>125</v>
-      </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" t="s">
         <v>122</v>
       </c>
-      <c r="T19" t="s">
-        <v>125</v>
-      </c>
       <c r="U19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="V19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AB19" t="s">
         <v>116</v>
       </c>
       <c r="AC19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2805,94 +2805,94 @@
         <v>92</v>
       </c>
       <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" t="s">
         <v>122</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" t="s">
-        <v>127</v>
-      </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T20" t="s">
         <v>122</v>
       </c>
       <c r="U20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V20" t="s">
+        <v>135</v>
+      </c>
+      <c r="W20" t="s">
+        <v>135</v>
+      </c>
+      <c r="X20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y20" t="s">
         <v>134</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Z20" t="s">
         <v>134</v>
       </c>
-      <c r="X20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>122</v>
-      </c>
       <c r="AA20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AB20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AC20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE20" t="s">
         <v>116</v>
       </c>
       <c r="AF20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2903,91 +2903,91 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J21" t="s">
         <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N21" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" t="s">
         <v>122</v>
       </c>
-      <c r="O21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>125</v>
-      </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U21" t="s">
         <v>125</v>
       </c>
       <c r="V21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Y21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Z21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AB21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF21" t="s">
         <v>116</v>
@@ -3004,91 +3004,91 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="V22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AF22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -3099,94 +3099,94 @@
         <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" t="s">
         <v>134</v>
       </c>
-      <c r="G23" t="s">
+      <c r="R23" t="s">
         <v>134</v>
       </c>
-      <c r="H23" t="s">
+      <c r="S23" t="s">
+        <v>117</v>
+      </c>
+      <c r="T23" t="s">
         <v>134</v>
       </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>121</v>
-      </c>
-      <c r="R23" t="s">
-        <v>122</v>
-      </c>
-      <c r="S23" t="s">
-        <v>120</v>
-      </c>
-      <c r="T23" t="s">
-        <v>117</v>
-      </c>
       <c r="U23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Y23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Z23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA23" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AB23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AC23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AF23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3197,94 +3197,94 @@
         <v>96</v>
       </c>
       <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
         <v>125</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
       </c>
       <c r="E24" t="s">
         <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" t="s">
         <v>125</v>
       </c>
-      <c r="R24" t="s">
-        <v>132</v>
-      </c>
       <c r="S24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T24" t="s">
         <v>125</v>
       </c>
       <c r="U24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Y24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AB24" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AC24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s">
         <v>122</v>
       </c>
       <c r="AF24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3295,94 +3295,94 @@
         <v>97</v>
       </c>
       <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
         <v>122</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>125</v>
-      </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
         <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="T25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="V25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Z25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3396,91 +3396,91 @@
         <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
         <v>116</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S26" t="s">
+        <v>120</v>
+      </c>
+      <c r="T26" t="s">
+        <v>117</v>
+      </c>
+      <c r="U26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V26" t="s">
+        <v>135</v>
+      </c>
+      <c r="W26" t="s">
+        <v>135</v>
+      </c>
+      <c r="X26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z26" t="s">
         <v>132</v>
       </c>
-      <c r="N26" t="s">
-        <v>126</v>
-      </c>
-      <c r="O26" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>118</v>
-      </c>
-      <c r="R26" t="s">
-        <v>127</v>
-      </c>
-      <c r="S26" t="s">
-        <v>118</v>
-      </c>
-      <c r="T26" t="s">
-        <v>132</v>
-      </c>
-      <c r="U26" t="s">
-        <v>118</v>
-      </c>
-      <c r="V26" t="s">
-        <v>134</v>
-      </c>
-      <c r="W26" t="s">
-        <v>134</v>
-      </c>
-      <c r="X26" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>126</v>
-      </c>
       <c r="AA26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AB26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3491,94 +3491,94 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s">
         <v>116</v>
       </c>
       <c r="M27" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" t="s">
         <v>125</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>117</v>
+      </c>
+      <c r="R27" t="s">
+        <v>117</v>
+      </c>
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+      <c r="T27" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" t="s">
+        <v>135</v>
+      </c>
+      <c r="W27" t="s">
+        <v>135</v>
+      </c>
+      <c r="X27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y27" t="s">
         <v>122</v>
       </c>
-      <c r="O27" t="s">
-        <v>134</v>
-      </c>
-      <c r="P27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>125</v>
-      </c>
-      <c r="R27" t="s">
-        <v>125</v>
-      </c>
-      <c r="S27" t="s">
-        <v>125</v>
-      </c>
-      <c r="T27" t="s">
-        <v>125</v>
-      </c>
-      <c r="U27" t="s">
-        <v>125</v>
-      </c>
-      <c r="V27" t="s">
-        <v>134</v>
-      </c>
-      <c r="W27" t="s">
-        <v>134</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="Z27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA27" t="s">
         <v>122</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AB27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE27" t="s">
         <v>117</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AF27" t="s">
         <v>117</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3589,94 +3589,94 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
         <v>116</v>
       </c>
       <c r="N28" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T28" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="U28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X28" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AB28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3687,34 +3687,34 @@
         <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J29" t="s">
         <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s">
         <v>117</v>
@@ -3723,58 +3723,58 @@
         <v>116</v>
       </c>
       <c r="O29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="T29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y29" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA29" t="s">
         <v>122</v>
       </c>
-      <c r="Z29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>125</v>
-      </c>
       <c r="AB29" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AC29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE29" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3785,94 +3785,94 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N30" t="s">
         <v>121</v>
       </c>
       <c r="O30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30" t="s">
         <v>116</v>
       </c>
       <c r="R30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S30" t="s">
+        <v>119</v>
+      </c>
+      <c r="T30" t="s">
+        <v>124</v>
+      </c>
+      <c r="U30" t="s">
+        <v>124</v>
+      </c>
+      <c r="V30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W30" t="s">
+        <v>135</v>
+      </c>
+      <c r="X30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y30" t="s">
         <v>125</v>
       </c>
-      <c r="T30" t="s">
-        <v>117</v>
-      </c>
-      <c r="U30" t="s">
-        <v>117</v>
-      </c>
-      <c r="V30" t="s">
-        <v>134</v>
-      </c>
-      <c r="W30" t="s">
-        <v>134</v>
-      </c>
-      <c r="X30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>117</v>
-      </c>
       <c r="Z30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AA30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AC30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE30" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3886,91 +3886,91 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" t="s">
         <v>119</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>122</v>
-      </c>
-      <c r="L31" t="s">
-        <v>118</v>
       </c>
       <c r="M31" t="s">
         <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="R31" t="s">
         <v>116</v>
       </c>
       <c r="S31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X31" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y31" t="s">
         <v>128</v>
       </c>
-      <c r="Y31" t="s">
-        <v>130</v>
-      </c>
       <c r="Z31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AA31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AB31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AF31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3981,94 +3981,94 @@
         <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s">
         <v>134</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>134</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" t="s">
         <v>134</v>
       </c>
-      <c r="I32" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" t="s">
-        <v>125</v>
-      </c>
       <c r="N32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S32" t="s">
         <v>116</v>
       </c>
       <c r="T32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="U32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="V32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AC32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AF32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -4088,16 +4088,16 @@
         <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J33" t="s">
         <v>129</v>
@@ -4115,10 +4115,10 @@
         <v>129</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33" t="s">
         <v>129</v>
@@ -4136,10 +4136,10 @@
         <v>129</v>
       </c>
       <c r="V33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X33" t="s">
         <v>129</v>
@@ -4157,10 +4157,10 @@
         <v>129</v>
       </c>
       <c r="AC33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE33" t="s">
         <v>129</v>
@@ -4177,94 +4177,94 @@
         <v>106</v>
       </c>
       <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
       <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" t="s">
         <v>125</v>
       </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" t="s">
         <v>125</v>
       </c>
-      <c r="M34" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" t="s">
-        <v>134</v>
-      </c>
-      <c r="P34" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>117</v>
-      </c>
-      <c r="R34" t="s">
-        <v>131</v>
-      </c>
       <c r="S34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U34" t="s">
         <v>116</v>
       </c>
       <c r="V34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X34" t="s">
         <v>117</v>
       </c>
       <c r="Y34" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Z34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE34" t="s">
         <v>117</v>
       </c>
-      <c r="AB34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>121</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4275,94 +4275,94 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O35" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q35" t="s">
         <v>125</v>
       </c>
-      <c r="M35" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" t="s">
-        <v>134</v>
-      </c>
-      <c r="P35" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>122</v>
-      </c>
       <c r="R35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X35" t="s">
         <v>116</v>
       </c>
       <c r="Y35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Z35" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AA35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AC35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4373,94 +4373,94 @@
         <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>120</v>
+      </c>
+      <c r="N36" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q36" t="s">
         <v>128</v>
       </c>
-      <c r="K36" t="s">
-        <v>124</v>
-      </c>
-      <c r="L36" t="s">
-        <v>124</v>
-      </c>
-      <c r="M36" t="s">
-        <v>124</v>
-      </c>
-      <c r="N36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O36" t="s">
-        <v>134</v>
-      </c>
-      <c r="P36" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>130</v>
-      </c>
       <c r="R36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="S36" t="s">
         <v>117</v>
       </c>
       <c r="T36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="U36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="V36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y36" t="s">
         <v>116</v>
       </c>
       <c r="Z36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB36" t="s">
         <v>117</v>
       </c>
       <c r="AC36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF36" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4471,94 +4471,94 @@
         <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N37" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R37" t="s">
         <v>121</v>
       </c>
       <c r="S37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U37" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="V37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X37" t="s">
         <v>126</v>
       </c>
       <c r="Y37" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Z37" t="s">
         <v>116</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AB37" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4569,94 +4569,94 @@
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M38" t="s">
         <v>125</v>
       </c>
       <c r="N38" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" t="s">
+        <v>135</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>117</v>
+      </c>
+      <c r="R38" t="s">
+        <v>119</v>
+      </c>
+      <c r="S38" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38" t="s">
+        <v>117</v>
+      </c>
+      <c r="U38" t="s">
+        <v>117</v>
+      </c>
+      <c r="V38" t="s">
+        <v>135</v>
+      </c>
+      <c r="W38" t="s">
+        <v>135</v>
+      </c>
+      <c r="X38" t="s">
         <v>125</v>
       </c>
-      <c r="O38" t="s">
-        <v>134</v>
-      </c>
-      <c r="P38" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>132</v>
-      </c>
-      <c r="R38" t="s">
-        <v>125</v>
-      </c>
-      <c r="S38" t="s">
-        <v>125</v>
-      </c>
-      <c r="T38" t="s">
-        <v>122</v>
-      </c>
-      <c r="U38" t="s">
-        <v>133</v>
-      </c>
-      <c r="V38" t="s">
-        <v>134</v>
-      </c>
-      <c r="W38" t="s">
-        <v>134</v>
-      </c>
-      <c r="X38" t="s">
-        <v>122</v>
-      </c>
       <c r="Y38" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Z38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA38" t="s">
         <v>116</v>
       </c>
       <c r="AB38" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AC38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4667,94 +4667,94 @@
         <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
         <v>117</v>
       </c>
       <c r="L39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M39" t="s">
         <v>117</v>
       </c>
       <c r="N39" t="s">
+        <v>124</v>
+      </c>
+      <c r="O39" t="s">
+        <v>135</v>
+      </c>
+      <c r="P39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q39" t="s">
         <v>117</v>
-      </c>
-      <c r="O39" t="s">
-        <v>134</v>
-      </c>
-      <c r="P39" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>121</v>
       </c>
       <c r="R39" t="s">
         <v>117</v>
       </c>
       <c r="S39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="T39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="U39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X39" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y39" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Z39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AA39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB39" t="s">
         <v>116</v>
       </c>
       <c r="AC39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AF39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4765,94 +4765,94 @@
         <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J40" t="s">
         <v>117</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s">
+        <v>132</v>
+      </c>
+      <c r="O40" t="s">
+        <v>135</v>
+      </c>
+      <c r="P40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>124</v>
+      </c>
+      <c r="R40" t="s">
         <v>125</v>
       </c>
-      <c r="M40" t="s">
-        <v>117</v>
-      </c>
-      <c r="N40" t="s">
-        <v>117</v>
-      </c>
-      <c r="O40" t="s">
-        <v>134</v>
-      </c>
-      <c r="P40" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>121</v>
-      </c>
-      <c r="R40" t="s">
-        <v>122</v>
-      </c>
       <c r="S40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T40" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U40" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="V40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Z40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AC40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE40" t="s">
         <v>116</v>
       </c>
       <c r="AF40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4863,91 +4863,91 @@
         <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q41" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="R41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="U41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="V41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Y41" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Z41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AB41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF41" t="s">
         <v>116</v>
@@ -4967,88 +4967,88 @@
         <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R42" t="s">
+        <v>119</v>
+      </c>
+      <c r="S42" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" t="s">
+        <v>117</v>
+      </c>
+      <c r="U42" t="s">
         <v>122</v>
       </c>
-      <c r="S42" t="s">
-        <v>127</v>
-      </c>
-      <c r="T42" t="s">
-        <v>127</v>
-      </c>
-      <c r="U42" t="s">
-        <v>127</v>
-      </c>
       <c r="V42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X42" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="Y42" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Z42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>132</v>
-      </c>
       <c r="AF42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -5059,94 +5059,94 @@
         <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N43" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R43" t="s">
         <v>122</v>
       </c>
       <c r="S43" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="T43" t="s">
+        <v>122</v>
+      </c>
+      <c r="U43" t="s">
         <v>121</v>
       </c>
-      <c r="U43" t="s">
-        <v>118</v>
-      </c>
       <c r="V43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Y43" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA43" t="s">
         <v>122</v>
       </c>
-      <c r="Z43" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>121</v>
-      </c>
       <c r="AB43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AC43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5265,28 +5265,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -5295,19 +5295,19 @@
         <v>14</v>
       </c>
       <c r="M2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <v>8</v>
@@ -5319,16 +5319,16 @@
         <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W2">
         <v>2</v>
       </c>
       <c r="X2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y2">
         <v>8</v>
@@ -5337,19 +5337,19 @@
         <v>15</v>
       </c>
       <c r="AA2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD2">
         <v>2</v>
       </c>
       <c r="AE2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -5360,28 +5360,28 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -5390,19 +5390,19 @@
         <v>13</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P3">
         <v>6</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R3">
         <v>11</v>
@@ -5414,16 +5414,16 @@
         <v>15</v>
       </c>
       <c r="U3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W3">
         <v>7</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -5432,19 +5432,19 @@
         <v>14</v>
       </c>
       <c r="AA3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD3">
         <v>7</v>
       </c>
       <c r="AE3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -5455,28 +5455,28 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -5485,19 +5485,19 @@
         <v>14</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R4">
         <v>9</v>
@@ -5509,16 +5509,16 @@
         <v>10</v>
       </c>
       <c r="U4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W4">
         <v>6</v>
       </c>
       <c r="X4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -5527,19 +5527,19 @@
         <v>15</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD4">
         <v>6</v>
       </c>
       <c r="AE4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -5550,28 +5550,28 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -5580,19 +5580,19 @@
         <v>13</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P5">
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R5">
         <v>9</v>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W5">
         <v>7</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y5">
         <v>9</v>
@@ -5622,19 +5622,19 @@
         <v>14</v>
       </c>
       <c r="AA5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD5">
         <v>7</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -5645,28 +5645,28 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -5675,19 +5675,19 @@
         <v>11</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P6">
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R6">
         <v>7</v>
@@ -5699,16 +5699,16 @@
         <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W6">
         <v>7</v>
       </c>
       <c r="X6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -5717,19 +5717,19 @@
         <v>12</v>
       </c>
       <c r="AA6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD6">
         <v>7</v>
       </c>
       <c r="AE6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -5740,25 +5740,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -5767,16 +5767,16 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -5794,16 +5794,16 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y7">
         <v>6</v>
@@ -5812,13 +5812,13 @@
         <v>10</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -5835,25 +5835,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -5862,58 +5862,58 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>12</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y8">
         <v>6</v>
       </c>
       <c r="Z8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -5927,46 +5927,46 @@
         <v>144</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -5975,40 +5975,40 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <v>2</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>145</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -6031,22 +6031,22 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -6055,37 +6055,37 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
         <v>2</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10">
         <v>2</v>
-      </c>
-      <c r="U10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
       </c>
       <c r="X10">
         <v>6</v>
@@ -6094,16 +6094,16 @@
         <v>2</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6120,43 +6120,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -6165,22 +6165,22 @@
         <v>2</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
         <v>4</v>
       </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
       <c r="U11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>5</v>
@@ -6192,13 +6192,13 @@
         <v>4</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -6215,43 +6215,43 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P12">
         <v>6</v>
@@ -6260,22 +6260,22 @@
         <v>5</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
         <v>8</v>
       </c>
-      <c r="T12">
-        <v>12</v>
-      </c>
       <c r="U12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X12">
         <v>9</v>
@@ -6287,13 +6287,13 @@
         <v>8</v>
       </c>
       <c r="AA12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD12">
         <v>7</v>
@@ -6307,46 +6307,46 @@
         <v>148</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13">
         <v>6</v>
@@ -6355,40 +6355,40 @@
         <v>7</v>
       </c>
       <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
         <v>8</v>
       </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
-      <c r="T13">
-        <v>12</v>
-      </c>
       <c r="U13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y13">
         <v>4</v>
       </c>
       <c r="Z13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD13">
         <v>5</v>
@@ -6402,46 +6402,46 @@
         <v>149</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K14">
         <v>7</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P14">
         <v>8</v>
@@ -6450,40 +6450,40 @@
         <v>9</v>
       </c>
       <c r="R14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y14">
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD14">
         <v>7</v>
@@ -6497,46 +6497,46 @@
         <v>150</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
         <v>10</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
       </c>
       <c r="K15">
         <v>7</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P15">
         <v>11</v>
@@ -6545,40 +6545,40 @@
         <v>7</v>
       </c>
       <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>135</v>
+      </c>
+      <c r="V15" t="s">
+        <v>135</v>
+      </c>
+      <c r="W15">
         <v>11</v>
       </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-      <c r="U15" t="s">
-        <v>134</v>
-      </c>
-      <c r="V15" t="s">
-        <v>134</v>
-      </c>
-      <c r="W15">
-        <v>12</v>
-      </c>
       <c r="X15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y15">
         <v>7</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD15">
         <v>10</v>
@@ -6592,46 +6592,46 @@
         <v>151</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K16">
         <v>8</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -6640,40 +6640,40 @@
         <v>10</v>
       </c>
       <c r="R16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y16">
         <v>8</v>
       </c>
       <c r="Z16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD16">
         <v>8</v>
@@ -6687,46 +6687,46 @@
         <v>152</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -6735,40 +6735,40 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y17">
         <v>2</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -6782,46 +6782,46 @@
         <v>153</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P18">
         <v>4</v>
@@ -6830,40 +6830,40 @@
         <v>7</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
         <v>6</v>
       </c>
-      <c r="S18">
-        <v>6</v>
-      </c>
-      <c r="T18">
-        <v>10</v>
-      </c>
       <c r="U18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W18">
         <v>5</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y18">
         <v>2</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD18">
         <v>4</v>
@@ -6880,88 +6880,88 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y19">
         <v>2</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -6975,88 +6975,88 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>7</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W20">
         <v>2</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y20">
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA20">
         <v>5</v>
       </c>
       <c r="AB20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <v>4</v>
@@ -7076,19 +7076,19 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -7124,13 +7124,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -7145,10 +7145,10 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -7171,19 +7171,19 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -7240,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="AB22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -7266,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -7293,10 +7293,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -7314,13 +7314,13 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>1</v>
@@ -7335,10 +7335,10 @@
         <v>1</v>
       </c>
       <c r="AB23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7361,19 +7361,19 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -7388,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -7409,13 +7409,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -7430,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD24">
         <v>-1</v>
@@ -7456,19 +7456,19 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -7483,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -7504,13 +7504,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>2</v>
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="AB25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -7938,13 +7938,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -8738,13 +8738,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -9354,7 +9354,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.002375296912114014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9434,7 +9434,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9744,10 +9744,10 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9758,7 +9758,7 @@
         <v>76</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9786,7 +9786,7 @@
         <v>78</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -9800,10 +9800,10 @@
         <v>79</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9814,10 +9814,10 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9828,10 +9828,10 @@
         <v>81</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9870,10 +9870,10 @@
         <v>84</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9884,10 +9884,10 @@
         <v>85</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>86</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9912,10 +9912,10 @@
         <v>87</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>92</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9996,10 +9996,10 @@
         <v>93</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10010,10 +10010,10 @@
         <v>94</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10024,10 +10024,10 @@
         <v>95</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10038,10 +10038,10 @@
         <v>96</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10052,10 +10052,10 @@
         <v>97</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10069,7 +10069,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10094,10 +10094,10 @@
         <v>100</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10108,10 +10108,10 @@
         <v>101</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10122,10 +10122,10 @@
         <v>102</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -10150,10 +10150,10 @@
         <v>104</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10178,7 +10178,7 @@
         <v>106</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -10192,10 +10192,10 @@
         <v>107</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10220,10 +10220,10 @@
         <v>109</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10248,10 +10248,10 @@
         <v>111</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10276,10 +10276,10 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -10290,10 +10290,10 @@
         <v>114</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -10304,10 +10304,10 @@
         <v>115</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -10348,13 +10348,13 @@
         <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>167</v>
@@ -10368,16 +10368,16 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10385,19 +10385,19 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>173</v>
       </c>
       <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
         <v>168</v>
       </c>
-      <c r="E4" t="s">
-        <v>174</v>
-      </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10405,19 +10405,19 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10425,19 +10425,19 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
         <v>170</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" t="s">
         <v>168</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10445,19 +10445,19 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10465,19 +10465,19 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10485,16 +10485,16 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
         <v>173</v>
@@ -10505,19 +10505,19 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" t="s">
-        <v>179</v>
-      </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10525,19 +10525,19 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
         <v>168</v>
       </c>
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
         <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10545,19 +10545,19 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
         <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10565,19 +10565,19 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10585,19 +10585,19 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" t="s">
-        <v>176</v>
-      </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10605,19 +10605,19 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
         <v>176</v>
       </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s">
-        <v>178</v>
-      </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10625,19 +10625,19 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10645,19 +10645,19 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10665,19 +10665,19 @@
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10685,19 +10685,19 @@
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10705,19 +10705,19 @@
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
         <v>168</v>
-      </c>
-      <c r="D20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10725,19 +10725,19 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10745,7 +10745,7 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
         <v>173</v>
@@ -10757,7 +10757,7 @@
         <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10768,16 +10768,16 @@
         <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10785,19 +10785,19 @@
         <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
         <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10805,16 +10805,16 @@
         <v>97</v>
       </c>
       <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
         <v>173</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" t="s">
         <v>176</v>
-      </c>
-      <c r="D25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
       </c>
       <c r="F25" t="s">
         <v>173</v>
@@ -10825,19 +10825,19 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
         <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10845,19 +10845,19 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10865,19 +10865,19 @@
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10885,19 +10885,19 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10905,19 +10905,19 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10925,19 +10925,19 @@
         <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10945,19 +10945,19 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10985,19 +10985,19 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
         <v>171</v>
       </c>
       <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
         <v>170</v>
-      </c>
-      <c r="E34" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -11005,16 +11005,16 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
         <v>173</v>
       </c>
-      <c r="C35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" t="s">
-        <v>176</v>
-      </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
         <v>173</v>
@@ -11025,13 +11025,13 @@
         <v>108</v>
       </c>
       <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
         <v>167</v>
-      </c>
-      <c r="C36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" t="s">
-        <v>170</v>
       </c>
       <c r="E36" t="s">
         <v>167</v>
@@ -11045,19 +11045,19 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -11065,19 +11065,19 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11085,19 +11085,19 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" t="s">
         <v>171</v>
-      </c>
-      <c r="E39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -11105,19 +11105,19 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -11125,19 +11125,19 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -11145,19 +11145,19 @@
         <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -11165,19 +11165,19 @@
         <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
